--- a/conventional.xlsx
+++ b/conventional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meteo" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="175">
   <si>
     <t>t</t>
   </si>
@@ -359,9 +359,6 @@
     <t>absorpivity</t>
   </si>
   <si>
-    <t>Graphite</t>
-  </si>
-  <si>
     <t>Stainless Steel</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Define the quantity, the salinty and the optical propreities of salt water, the other properties (mechanical, thermal, etc.) are calculated by the software as the distillation process progresses</t>
   </si>
   <si>
-    <t>Polyurethane foam</t>
-  </si>
-  <si>
     <t>Configurations</t>
   </si>
   <si>
@@ -561,6 +555,33 @@
   </si>
   <si>
     <t>Kg</t>
+  </si>
+  <si>
+    <t>https://fr.weatherspark.com/h/d/109174/2005/4/8/M%C3%A9t%C3%A9o-historique-le-vendredi-8-avril-2005-%C3%A0-New-Delhi-Delhi-Inde#Figures-WindSpeed</t>
+  </si>
+  <si>
+    <t>https://www.wofrance.fr/weather/maps/city</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>35°8'28.3"N 33°54'38.0"E</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Galvanized steel</t>
+  </si>
+  <si>
+    <t>Polyestyrene</t>
+  </si>
+  <si>
+    <t>Price(USD/kg)</t>
   </si>
 </sst>
 </file>
@@ -794,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -849,8 +870,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -863,6 +882,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -922,6 +951,44 @@
         <a:xfrm>
           <a:off x="5969000" y="1079501"/>
           <a:ext cx="3946757" cy="3040944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>437719</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88837</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269855" y="4203775"/>
+          <a:ext cx="4798933" cy="1956612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,21 +1306,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="2.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1273,260 +1340,380 @@
         <v>5</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D2" s="7">
         <v>0.101325</v>
       </c>
       <c r="E2" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>0.375</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="B3" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="50" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="B4" s="6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7"/>
       <c r="H4" s="50" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="B5" s="6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7"/>
       <c r="H5" s="50" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>0.5</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="B6" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7">
-        <v>860</v>
+        <v>700</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7"/>
       <c r="H6" s="50" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="L6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B7" s="6">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>950</v>
+        <v>780</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F7" s="7"/>
       <c r="H7" s="50" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="B8" s="6">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
-        <v>980</v>
+        <v>760</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7">
         <v>20</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>0.625</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="B9" s="6">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="B10" s="6">
-        <v>26.7</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="B11" s="6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7">
-        <v>19</v>
+        <v>27.7</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>0.75</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="B12" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="6">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B14" s="6">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B15" s="6">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="B16" s="6">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>0.91666666666666097</v>
+      </c>
+      <c r="B17" s="6">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>0.95833333333332804</v>
+      </c>
+      <c r="B18" s="6">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1538,24 +1725,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="103" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="3" max="3" width="42.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" customWidth="1"/>
-    <col min="5" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="3.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1568,7 +1756,7 @@
       </c>
       <c r="E1" s="8"/>
       <c r="G1" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -1577,13 +1765,13 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1605,19 +1793,19 @@
       <c r="I2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="59" t="s">
-        <v>119</v>
+      <c r="J2" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>14</v>
@@ -1629,18 +1817,18 @@
         <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
@@ -1652,13 +1840,13 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1675,12 +1863,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>0.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -1692,12 +1880,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>22</v>
@@ -1711,7 +1899,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1719,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>24</v>
@@ -1728,7 +1916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1736,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>11</v>
@@ -1745,7 +1933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1753,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
@@ -1762,12 +1950,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -1779,12 +1967,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>7.8E-2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>30</v>
@@ -1796,7 +1984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1813,12 +2001,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>34</v>
@@ -1830,7 +2018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1847,7 +2035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1864,15 +2052,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>24</v>
@@ -1881,7 +2069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1898,7 +2086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1915,7 +2103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1932,7 +2120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1949,7 +2137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1957,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>11</v>
@@ -1966,7 +2154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1974,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>24</v>
@@ -2001,31 +2189,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="133" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
@@ -2050,7 +2238,7 @@
         <v>53</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>94</v>
@@ -2059,7 +2247,7 @@
         <v>55</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>95</v>
@@ -2068,7 +2256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -2076,7 +2264,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>58</v>
@@ -2089,24 +2277,24 @@
         <v>0.85</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="13">
-        <f t="shared" ref="I2:I9" si="1">IF($J$1=$P$14,P15,IF($J$1=$Q$14,Q15,IF($J$1=$R$14,R15)))</f>
-        <v>0.02</v>
+        <f>IF($J$1=$P$14,P15,IF($J$1=$Q$14,Q15,IF($J$1=$R$14,R15)))</f>
+        <v>0</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>61</v>
       </c>
       <c r="L2" s="21">
         <f>IF($M$1=$P$25,P26,IF($M$1=$Q$25,Q26))</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>62</v>
@@ -2117,7 +2305,7 @@
       </c>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2128,7 +2316,7 @@
         <v>0.95</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>64</v>
@@ -2138,17 +2326,17 @@
         <v>0.3</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>65</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
+        <f>IF($J$1=$P$14,P16,IF($J$1=$Q$14,Q16,IF($J$1=$R$14,R16)))</f>
+        <v>0.9</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>66</v>
@@ -2170,7 +2358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2181,7 +2369,7 @@
         <v>0.05</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>68</v>
@@ -2197,8 +2385,8 @@
         <v>70</v>
       </c>
       <c r="I4" s="13">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f t="shared" ref="I4:I9" si="1">IF($J$1=$P$14,P17,IF($J$1=$Q$14,Q17,IF($J$1=$R$14,R17)))</f>
+        <v>50</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>62</v>
@@ -2208,13 +2396,13 @@
       </c>
       <c r="L4" s="25">
         <f>IF($M$1=$P$25,P27,IF($M$1=$Q$25,Q27))</f>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M4" s="22" t="s">
         <v>72</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" s="12">
         <v>0.85</v>
@@ -2223,7 +2411,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2251,7 +2439,7 @@
       </c>
       <c r="I5" s="13">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>7100</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>72</v>
@@ -2276,7 +2464,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2304,7 +2492,7 @@
       </c>
       <c r="I6" s="13">
         <f t="shared" si="1"/>
-        <v>0.89600000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>81</v>
@@ -2314,7 +2502,7 @@
       </c>
       <c r="L6" s="25">
         <f>IF($M$1=$P$25,P28,IF($M$1=$Q$25,Q28))</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M6" s="22"/>
       <c r="O6" s="12" t="s">
@@ -2327,7 +2515,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2355,7 +2543,7 @@
       </c>
       <c r="I7" s="13">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>87</v>
@@ -2378,7 +2566,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2390,27 +2578,27 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L8" s="25">
         <f>IF($M$1=$P$25,P29,IF($M$1=$Q$25,Q29))</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M8" s="18"/>
       <c r="O8" s="12" t="s">
@@ -2423,32 +2611,32 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="11">
         <f>IF($G$1=$P$3,P11,IF($G$1=$Q$3,Q11))</f>
         <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>113</v>
       </c>
       <c r="L9" s="25">
         <f>R29</f>
@@ -2464,38 +2652,38 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O10" s="12" t="s">
         <v>87</v>
       </c>
       <c r="P10" s="12">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O11" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P11" s="12">
         <v>20</v>
       </c>
       <c r="Q11" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
       <c r="O13" s="14"/>
       <c r="P13" s="30" t="s">
         <v>93</v>
@@ -2503,14 +2691,14 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="O14" s="32" t="s">
         <v>97</v>
       </c>
@@ -2518,22 +2706,22 @@
         <v>54</v>
       </c>
       <c r="Q14" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="R14" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R14" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="O15" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P15" s="20">
         <v>0.02</v>
@@ -2545,16 +2733,16 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
       <c r="O16" s="20" t="s">
         <v>99</v>
       </c>
@@ -2562,22 +2750,22 @@
         <v>0.85</v>
       </c>
       <c r="Q16" s="20">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="R16" s="20">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
       <c r="O17" s="20" t="s">
         <v>62</v>
       </c>
@@ -2585,13 +2773,13 @@
         <v>73</v>
       </c>
       <c r="Q17" s="20">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="R17" s="20">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O18" s="20" t="s">
         <v>72</v>
       </c>
@@ -2599,13 +2787,13 @@
         <v>2700</v>
       </c>
       <c r="Q18" s="20">
-        <v>2250</v>
+        <v>7100</v>
       </c>
       <c r="R18" s="20">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O19" s="20" t="s">
         <v>81</v>
       </c>
@@ -2613,29 +2801,29 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="Q19" s="20">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="R19" s="20">
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O20" s="20" t="s">
         <v>87</v>
       </c>
       <c r="P20" s="20">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="20">
-        <v>650</v>
+        <v>10</v>
       </c>
       <c r="R20" s="20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O21" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P21" s="20">
         <v>0.02</v>
@@ -2647,21 +2835,21 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O22" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P22" s="20">
         <v>75</v>
       </c>
       <c r="Q22" s="20">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R22" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O24" s="35"/>
       <c r="P24" s="36" t="s">
         <v>94</v>
@@ -2669,26 +2857,26 @@
       <c r="Q24" s="37"/>
       <c r="R24" s="38"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O25" s="39" t="s">
         <v>97</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>56</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O26" s="42" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="42">
-        <v>0.04</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q26" s="42">
         <v>4.4999999999999998E-2</v>
@@ -2697,12 +2885,12 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O27" s="42" t="s">
         <v>72</v>
       </c>
       <c r="P27" s="42">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="42">
         <v>400</v>
@@ -2711,12 +2899,12 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O28" s="42" t="s">
         <v>87</v>
       </c>
       <c r="P28" s="42">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="Q28" s="42">
         <v>14</v>
@@ -2725,12 +2913,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="O29" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P29" s="42">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="42">
         <v>80</v>
@@ -2770,49 +2958,49 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="B2" s="51"/>
+      <c r="D2" s="64" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="51" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="D2" s="62" t="s">
+      <c r="B3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="B4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="51"/>
-    </row>
-    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="51"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
-        <v>150</v>
-      </c>
       <c r="B5" s="51"/>
     </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:F2"/>
@@ -2829,203 +3017,393 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E12"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="8.90625" customWidth="1"/>
-    <col min="10" max="10" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B2" s="58">
+        <v>22.1</v>
+      </c>
+      <c r="C2" s="58">
+        <v>21.5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>21.4</v>
+      </c>
+      <c r="E2" s="58">
+        <v>0</v>
+      </c>
+      <c r="F2" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="I2" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B3" s="58">
+        <v>24.4</v>
+      </c>
+      <c r="C3" s="58">
+        <v>24.4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E3" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="54">
+      <c r="J3" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="58">
+        <v>31.4</v>
+      </c>
+      <c r="C4" s="58">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="E4" s="58">
         <v>0.02</v>
       </c>
-      <c r="I2" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="F4" s="54"/>
+      <c r="I4" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56"/>
-      <c r="I3" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="56"/>
-      <c r="I4" s="55" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5" s="58">
+        <v>45.2</v>
+      </c>
+      <c r="C5" s="58">
+        <v>48.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>57.7</v>
+      </c>
+      <c r="E5" s="58">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="I5" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="56"/>
-      <c r="I5" s="55" t="s">
+      <c r="K5" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="58">
+        <v>52.7</v>
+      </c>
+      <c r="C6" s="58">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6">
+        <v>64.3</v>
+      </c>
+      <c r="E6" s="58">
+        <v>0.26</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="I6" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="K6" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>0.5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="56"/>
-      <c r="I6" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="58">
+        <v>59.6</v>
+      </c>
+      <c r="C7" s="58">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6">
+        <v>67.8</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0.54</v>
+      </c>
+      <c r="F7" s="54"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B8" s="58">
+        <v>62.5</v>
+      </c>
+      <c r="C8" s="58">
+        <v>64.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E8" s="58">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9" s="58">
+        <v>57.5</v>
+      </c>
+      <c r="C9" s="58">
+        <v>68.2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>63.3</v>
+      </c>
+      <c r="E9" s="58">
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>0.625</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="58">
+        <v>58.3</v>
+      </c>
+      <c r="C10" s="58">
+        <v>68.8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="E10" s="58">
+        <v>1.5100000000000002</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B11" s="58">
+        <v>53.9</v>
+      </c>
+      <c r="C11" s="58">
+        <v>62.4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>62.7</v>
+      </c>
+      <c r="E11" s="58">
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12" s="58">
+        <v>48.9</v>
+      </c>
+      <c r="C12" s="58">
+        <v>56.1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>55.2</v>
+      </c>
+      <c r="E12" s="58">
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>0.75</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="56"/>
+      <c r="B13" s="58">
+        <v>43.3</v>
+      </c>
+      <c r="C13" s="58">
+        <v>45.9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="E13" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B14" s="58">
+        <v>37.1</v>
+      </c>
+      <c r="C14" s="58">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D14" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="E14" s="58">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B15" s="58">
+        <v>31.8</v>
+      </c>
+      <c r="C15" s="58">
+        <v>31.1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="E15" s="58">
+        <v>2.1199999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="B16" s="58">
+        <v>28.9</v>
+      </c>
+      <c r="C16" s="58">
+        <v>28.1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>27.1</v>
+      </c>
+      <c r="E16" s="58">
+        <v>2.1499999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>0.91666666666666097</v>
+      </c>
+      <c r="B17" s="58">
+        <v>26.8</v>
+      </c>
+      <c r="C17" s="58">
+        <v>28.6</v>
+      </c>
+      <c r="D17" s="8">
+        <v>26.8</v>
+      </c>
+      <c r="E17" s="58">
+        <v>2.1799999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>0.95833333333332804</v>
+      </c>
+      <c r="B18" s="58">
+        <v>26.9</v>
+      </c>
+      <c r="C18" s="58">
+        <v>26.7</v>
+      </c>
+      <c r="D18" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="E18" s="58">
+        <v>2.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
